--- a/JupyterNotebooks/AveragedIntensites/GossA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossA-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1069,7 @@
         <v>0.9936876058048703</v>
       </c>
       <c r="D13">
-        <v>0.9933137835985733</v>
+        <v>0.9933137835985731</v>
       </c>
       <c r="E13">
         <v>0.9954199582472592</v>
@@ -1081,7 +1081,7 @@
         <v>0.9936876058048703</v>
       </c>
       <c r="H13">
-        <v>0.9933137835985733</v>
+        <v>0.9933137835985731</v>
       </c>
       <c r="I13">
         <v>0.9943988124178552</v>
@@ -1093,13 +1093,13 @@
         <v>0.9942538958394512</v>
       </c>
       <c r="L13">
-        <v>0.9920335538727212</v>
+        <v>0.9920335538727214</v>
       </c>
       <c r="M13">
         <v>0.9936943093737369</v>
       </c>
       <c r="N13">
-        <v>0.9943668709229162</v>
+        <v>0.9943668709229161</v>
       </c>
       <c r="O13">
         <v>0.9940776702791819</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>1.001041627292332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.201031381252061</v>
+      </c>
+      <c r="D16">
+        <v>0.9924703951312377</v>
+      </c>
+      <c r="E16">
+        <v>0.9834174039073463</v>
+      </c>
+      <c r="F16">
+        <v>0.9305288542310139</v>
+      </c>
+      <c r="G16">
+        <v>1.201031381252061</v>
+      </c>
+      <c r="H16">
+        <v>0.9924703951312377</v>
+      </c>
+      <c r="I16">
+        <v>1.036209067011093</v>
+      </c>
+      <c r="J16">
+        <v>0.9172375850247387</v>
+      </c>
+      <c r="K16">
+        <v>1.026900555561042</v>
+      </c>
+      <c r="L16">
+        <v>0.9346251806368507</v>
+      </c>
+      <c r="M16">
+        <v>1.201031381252061</v>
+      </c>
+      <c r="N16">
+        <v>0.987943899519292</v>
+      </c>
+      <c r="O16">
+        <v>1.026862008630415</v>
+      </c>
+      <c r="P16">
+        <v>1.002802552844423</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.201031381252061</v>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW20.xlsx
@@ -1072,7 +1072,7 @@
         <v>0.9936876058048703</v>
       </c>
       <c r="D13">
-        <v>0.9933137835985731</v>
+        <v>0.9933137835985733</v>
       </c>
       <c r="E13">
         <v>0.9954199582472592</v>
@@ -1084,7 +1084,7 @@
         <v>0.9936876058048703</v>
       </c>
       <c r="H13">
-        <v>0.9933137835985731</v>
+        <v>0.9933137835985733</v>
       </c>
       <c r="I13">
         <v>0.9943988124178552</v>
@@ -1096,13 +1096,13 @@
         <v>0.9942538958394512</v>
       </c>
       <c r="L13">
-        <v>0.9920335538727214</v>
+        <v>0.9920335538727212</v>
       </c>
       <c r="M13">
         <v>0.9936943093737369</v>
       </c>
       <c r="N13">
-        <v>0.9943668709229161</v>
+        <v>0.9943668709229162</v>
       </c>
       <c r="O13">
         <v>0.9940776702791819</v>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4694839999999998</v>
+        <v>1.201031381252061</v>
       </c>
       <c r="D10">
-        <v>1.190688000000001</v>
+        <v>0.9924703951312377</v>
       </c>
       <c r="E10">
-        <v>1.408632</v>
+        <v>0.9834174039073463</v>
       </c>
       <c r="F10">
-        <v>0.9236320000000016</v>
+        <v>0.9305288542310139</v>
       </c>
       <c r="G10">
-        <v>0.4694839999999998</v>
+        <v>1.201031381252061</v>
       </c>
       <c r="H10">
-        <v>1.190688000000001</v>
+        <v>0.9924703951312377</v>
       </c>
       <c r="I10">
-        <v>1.059008000000001</v>
+        <v>1.036209067011093</v>
       </c>
       <c r="J10">
-        <v>1.177095999999999</v>
+        <v>0.9172375850247387</v>
       </c>
       <c r="K10">
-        <v>0.7513119999999998</v>
+        <v>1.026900555561042</v>
       </c>
       <c r="L10">
-        <v>1.101719999999999</v>
+        <v>0.9346251806368507</v>
       </c>
       <c r="M10">
-        <v>0.4694839999999998</v>
+        <v>1.201031381252061</v>
       </c>
       <c r="N10">
-        <v>1.299660000000001</v>
+        <v>0.987943899519292</v>
       </c>
       <c r="O10">
-        <v>0.9981090000000006</v>
+        <v>1.026862008630415</v>
       </c>
       <c r="P10">
-        <v>1.0101965</v>
+        <v>1.002802552844423</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.66</v>
+        <v>0.328386906376964</v>
       </c>
       <c r="D11">
-        <v>0.21</v>
+        <v>1.889623144686522</v>
       </c>
       <c r="E11">
-        <v>1.97</v>
+        <v>0.9401723248035061</v>
       </c>
       <c r="F11">
-        <v>0.7</v>
+        <v>1.112288761701969</v>
       </c>
       <c r="G11">
-        <v>0.66</v>
+        <v>0.328386906376964</v>
       </c>
       <c r="H11">
-        <v>0.21</v>
+        <v>1.889623144686522</v>
       </c>
       <c r="I11">
-        <v>1.498749999999999</v>
+        <v>0.725773798042578</v>
       </c>
       <c r="J11">
-        <v>1.160275000000001</v>
+        <v>1.206432846945116</v>
       </c>
       <c r="K11">
-        <v>0.8426125000000002</v>
+        <v>0.7018675165841424</v>
       </c>
       <c r="L11">
-        <v>0.4952749999999999</v>
+        <v>1.535077249173352</v>
       </c>
       <c r="M11">
-        <v>0.66</v>
+        <v>0.328386906376964</v>
       </c>
       <c r="N11">
-        <v>1.09</v>
+        <v>1.414897734745014</v>
       </c>
       <c r="O11">
-        <v>0.885</v>
+        <v>1.06761778439224</v>
       </c>
       <c r="P11">
-        <v>0.9421140625</v>
+        <v>1.054952818539269</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8104218732544011</v>
+        <v>0.3274990554223933</v>
       </c>
       <c r="D12">
-        <v>0.5397915715584015</v>
+        <v>1.893761146967791</v>
       </c>
       <c r="E12">
-        <v>1.5545899380736</v>
+        <v>0.9374496479028154</v>
       </c>
       <c r="F12">
-        <v>0.8263806980096018</v>
+        <v>1.113453893430607</v>
       </c>
       <c r="G12">
-        <v>0.8104218732544011</v>
+        <v>0.3274990554223933</v>
       </c>
       <c r="H12">
-        <v>0.5397915715584015</v>
+        <v>1.893761146967791</v>
       </c>
       <c r="I12">
-        <v>1.281718131097599</v>
+        <v>0.7235663637782129</v>
       </c>
       <c r="J12">
-        <v>1.0857705370624</v>
+        <v>1.206605241917441</v>
       </c>
       <c r="K12">
-        <v>0.9099897923583969</v>
+        <v>0.7015036444599082</v>
       </c>
       <c r="L12">
-        <v>0.7063428915200011</v>
+        <v>1.537951313656142</v>
       </c>
       <c r="M12">
-        <v>0.8104171606016012</v>
+        <v>0.3274990554223933</v>
       </c>
       <c r="N12">
-        <v>1.047190754816001</v>
+        <v>1.415605397435303</v>
       </c>
       <c r="O12">
-        <v>0.9327960202240011</v>
+        <v>1.068040935930902</v>
       </c>
       <c r="P12">
-        <v>0.9643756791168002</v>
+        <v>1.055223788441914</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9936876058048703</v>
+        <v>0.3282244278643351</v>
       </c>
       <c r="D13">
-        <v>0.9933137835985733</v>
+        <v>1.890164067852492</v>
       </c>
       <c r="E13">
-        <v>0.9954199582472592</v>
+        <v>0.9396232570599472</v>
       </c>
       <c r="F13">
-        <v>0.9938893334660253</v>
+        <v>1.112596242688806</v>
       </c>
       <c r="G13">
-        <v>0.9936876058048703</v>
+        <v>0.3282244278643351</v>
       </c>
       <c r="H13">
-        <v>0.9933137835985733</v>
+        <v>1.890164067852492</v>
       </c>
       <c r="I13">
-        <v>0.9943988124178552</v>
+        <v>0.7252233033950867</v>
       </c>
       <c r="J13">
-        <v>0.9961554661360671</v>
+        <v>1.206515316486272</v>
       </c>
       <c r="K13">
-        <v>0.9942538958394512</v>
+        <v>0.7018487639650598</v>
       </c>
       <c r="L13">
-        <v>0.9920335538727212</v>
+        <v>1.535686761862671</v>
       </c>
       <c r="M13">
-        <v>0.9936943093737369</v>
+        <v>0.3282244278643351</v>
       </c>
       <c r="N13">
-        <v>0.9943668709229162</v>
+        <v>1.414893662456219</v>
       </c>
       <c r="O13">
-        <v>0.9940776702791819</v>
+        <v>1.067651998866395</v>
       </c>
       <c r="P13">
-        <v>0.9941440511728529</v>
+        <v>1.054985267646833</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.002644322090684</v>
+        <v>0.4694839999999998</v>
       </c>
       <c r="D14">
-        <v>1.02901070469991</v>
+        <v>1.190688000000001</v>
       </c>
       <c r="E14">
-        <v>0.9814080470948402</v>
+        <v>1.408632</v>
       </c>
       <c r="F14">
-        <v>0.9915027306285648</v>
+        <v>0.9236320000000016</v>
       </c>
       <c r="G14">
-        <v>1.002644322090684</v>
+        <v>0.4694839999999998</v>
       </c>
       <c r="H14">
-        <v>1.02901070469991</v>
+        <v>1.190688000000001</v>
       </c>
       <c r="I14">
-        <v>0.9835592198750354</v>
+        <v>1.059008000000001</v>
       </c>
       <c r="J14">
-        <v>0.991941573237313</v>
+        <v>1.177095999999999</v>
       </c>
       <c r="K14">
-        <v>0.9904784264816872</v>
+        <v>0.7513119999999998</v>
       </c>
       <c r="L14">
-        <v>1.00702966372145</v>
+        <v>1.101719999999999</v>
       </c>
       <c r="M14">
-        <v>1.002644322090684</v>
+        <v>0.4694839999999998</v>
       </c>
       <c r="N14">
-        <v>1.005209375897375</v>
+        <v>1.299660000000001</v>
       </c>
       <c r="O14">
-        <v>1.0011414511285</v>
+        <v>0.9981090000000006</v>
       </c>
       <c r="P14">
-        <v>0.9971968359786855</v>
+        <v>1.0101965</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9738047511993261</v>
+        <v>0.66</v>
       </c>
       <c r="D15">
-        <v>1.069272647050894</v>
+        <v>0.21</v>
       </c>
       <c r="E15">
-        <v>0.976643070494326</v>
+        <v>1.97</v>
       </c>
       <c r="F15">
-        <v>1.004721176537816</v>
+        <v>0.7</v>
       </c>
       <c r="G15">
-        <v>0.9738047511993261</v>
+        <v>0.66</v>
       </c>
       <c r="H15">
-        <v>1.069272647050894</v>
+        <v>0.21</v>
       </c>
       <c r="I15">
-        <v>0.9685981757026126</v>
+        <v>1.498749999999999</v>
       </c>
       <c r="J15">
-        <v>0.9969514031025885</v>
+        <v>1.160275000000001</v>
       </c>
       <c r="K15">
-        <v>0.9815719998120205</v>
+        <v>0.8426125000000002</v>
       </c>
       <c r="L15">
-        <v>1.036769794439071</v>
+        <v>0.4952749999999999</v>
       </c>
       <c r="M15">
-        <v>0.9738182289009422</v>
+        <v>0.66</v>
       </c>
       <c r="N15">
-        <v>1.02295785877261</v>
+        <v>1.09</v>
       </c>
       <c r="O15">
-        <v>1.00611041132059</v>
+        <v>0.885</v>
       </c>
       <c r="P15">
-        <v>1.001041627292332</v>
+        <v>0.9421140625</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.201031381252061</v>
+        <v>0.8104218732544011</v>
       </c>
       <c r="D16">
-        <v>0.9924703951312377</v>
+        <v>0.5397915715584015</v>
       </c>
       <c r="E16">
-        <v>0.9834174039073463</v>
+        <v>1.5545899380736</v>
       </c>
       <c r="F16">
-        <v>0.9305288542310139</v>
+        <v>0.8263806980096018</v>
       </c>
       <c r="G16">
-        <v>1.201031381252061</v>
+        <v>0.8104218732544011</v>
       </c>
       <c r="H16">
-        <v>0.9924703951312377</v>
+        <v>0.5397915715584015</v>
       </c>
       <c r="I16">
-        <v>1.036209067011093</v>
+        <v>1.281718131097599</v>
       </c>
       <c r="J16">
-        <v>0.9172375850247387</v>
+        <v>1.0857705370624</v>
       </c>
       <c r="K16">
-        <v>1.026900555561042</v>
+        <v>0.9099897923583969</v>
       </c>
       <c r="L16">
-        <v>0.9346251806368507</v>
+        <v>0.7063428915200011</v>
       </c>
       <c r="M16">
-        <v>1.201031381252061</v>
+        <v>0.8104171606016012</v>
       </c>
       <c r="N16">
-        <v>0.987943899519292</v>
+        <v>1.047190754816001</v>
       </c>
       <c r="O16">
-        <v>1.026862008630415</v>
+        <v>0.9327960202240011</v>
       </c>
       <c r="P16">
-        <v>1.002802552844423</v>
+        <v>0.9643756791168002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9936876058048703</v>
+      </c>
+      <c r="D17">
+        <v>0.9933137835985731</v>
+      </c>
+      <c r="E17">
+        <v>0.9954199582472592</v>
+      </c>
+      <c r="F17">
+        <v>0.9938893334660253</v>
+      </c>
+      <c r="G17">
+        <v>0.9936876058048703</v>
+      </c>
+      <c r="H17">
+        <v>0.9933137835985731</v>
+      </c>
+      <c r="I17">
+        <v>0.9943988124178552</v>
+      </c>
+      <c r="J17">
+        <v>0.9961554661360671</v>
+      </c>
+      <c r="K17">
+        <v>0.9942538958394512</v>
+      </c>
+      <c r="L17">
+        <v>0.9920335538727214</v>
+      </c>
+      <c r="M17">
+        <v>0.9936943093737369</v>
+      </c>
+      <c r="N17">
+        <v>0.9943668709229161</v>
+      </c>
+      <c r="O17">
+        <v>0.9940776702791819</v>
+      </c>
+      <c r="P17">
+        <v>0.9941440511728529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.002644322090684</v>
+      </c>
+      <c r="D18">
+        <v>1.02901070469991</v>
+      </c>
+      <c r="E18">
+        <v>0.9814080470948402</v>
+      </c>
+      <c r="F18">
+        <v>0.9915027306285648</v>
+      </c>
+      <c r="G18">
+        <v>1.002644322090684</v>
+      </c>
+      <c r="H18">
+        <v>1.02901070469991</v>
+      </c>
+      <c r="I18">
+        <v>0.9835592198750354</v>
+      </c>
+      <c r="J18">
+        <v>0.991941573237313</v>
+      </c>
+      <c r="K18">
+        <v>0.9904784264816872</v>
+      </c>
+      <c r="L18">
+        <v>1.00702966372145</v>
+      </c>
+      <c r="M18">
+        <v>1.002644322090684</v>
+      </c>
+      <c r="N18">
+        <v>1.005209375897375</v>
+      </c>
+      <c r="O18">
+        <v>1.0011414511285</v>
+      </c>
+      <c r="P18">
+        <v>0.9971968359786855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9738047511993261</v>
+      </c>
+      <c r="D19">
+        <v>1.069272647050894</v>
+      </c>
+      <c r="E19">
+        <v>0.976643070494326</v>
+      </c>
+      <c r="F19">
+        <v>1.004721176537816</v>
+      </c>
+      <c r="G19">
+        <v>0.9738047511993261</v>
+      </c>
+      <c r="H19">
+        <v>1.069272647050894</v>
+      </c>
+      <c r="I19">
+        <v>0.9685981757026126</v>
+      </c>
+      <c r="J19">
+        <v>0.9969514031025885</v>
+      </c>
+      <c r="K19">
+        <v>0.9815719998120205</v>
+      </c>
+      <c r="L19">
+        <v>1.036769794439071</v>
+      </c>
+      <c r="M19">
+        <v>0.9738182289009422</v>
+      </c>
+      <c r="N19">
+        <v>1.02295785877261</v>
+      </c>
+      <c r="O19">
+        <v>1.00611041132059</v>
+      </c>
+      <c r="P19">
+        <v>1.001041627292332</v>
       </c>
     </row>
   </sheetData>
